--- a/utils/factura.xlsx
+++ b/utils/factura.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AT-Redabierta\Documents\Local Repos\pruebasexcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AT-Redabierta\Documents\Local Repos\GoProcesadorExcel\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F867E6-B7D9-49BD-98F5-DF4A15B92B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{165C6782-B937-4B5F-BD10-018C3D5D928C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{76A9055E-E653-4319-A187-EA89127986D3}"/>
+    <workbookView xWindow="2960" yWindow="1700" windowWidth="14690" windowHeight="8380" firstSheet="2" activeTab="5" xr2:uid="{76A9055E-E653-4319-A187-EA89127986D3}"/>
   </bookViews>
   <sheets>
     <sheet name="dte" sheetId="6" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="42">
   <si>
     <t>CodigoEstablecimientoMH</t>
   </si>
@@ -167,15 +167,6 @@
   </si>
   <si>
     <t>03873621101238</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>10°  Calle poniente</t>
-  </si>
-  <si>
-    <t>Producto 2</t>
   </si>
 </sst>
 </file>
@@ -610,7 +601,7 @@
   <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -639,12 +630,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
+      <c r="A3" s="1"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
@@ -951,7 +937,7 @@
   <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -983,15 +969,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
+      <c r="A3" s="1"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
@@ -1298,7 +1276,7 @@
   <dimension ref="A1:L101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="A3" sqref="A3:L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1394,42 +1372,13 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3">
-        <v>36</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3">
-        <v>12</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" t="s">
-        <v>7</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
@@ -2023,19 +1972,18 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="K2" r:id="rId1" xr:uid="{058D022E-B864-4703-94D8-79BD595D8FC2}"/>
-    <hyperlink ref="K3" r:id="rId2" xr:uid="{599E2959-B2D0-4673-A19F-1D6915E3CC89}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2106C7DA-0ECD-4ACD-B3C4-75309B61F032}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="A3" sqref="A3:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2121,38 +2069,6 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3">
-        <v>99</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>15</v>
-      </c>
-      <c r="G3">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>20</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2164,7 +2080,7 @@
   <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2194,12 +2110,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3">
-        <v>22</v>
-      </c>
+      <c r="A3" s="1"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
@@ -2506,7 +2417,7 @@
   <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A3" sqref="A3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2566,27 +2477,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" t="s">
-        <v>7</v>
-      </c>
+      <c r="A3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
